--- a/CLOUD_APPS/app_contents.xlsx
+++ b/CLOUD_APPS/app_contents.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\APEX_DB\APEX_DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmand\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EEC4ED-B5C5-4E6D-9756-8D9C3358BF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94D63BA3-778C-4127-8386-E3DA646E706B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29280" yWindow="810" windowWidth="33255" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38415" yWindow="15" windowWidth="25740" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="link_to_all_apps" sheetId="1" r:id="rId1"/>
@@ -899,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,7 +959,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>134</v>
       </c>
@@ -994,7 +994,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>133</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>132</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>131</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>130</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>129</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>128</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>127</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>126</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>125</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>124</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>123</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>122</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>121</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>120</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>119</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>118</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>117</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>116</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>115</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>114</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>113</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>112</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>111</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>110</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>109</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>108</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>107</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>106</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>105</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>104</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>103</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>102</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>101</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>100</v>
       </c>
@@ -2135,41 +2135,41 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:134,134,134,134,&amp;cs=338589B09F9EDDC25F495A3C5B81047B4" xr:uid="{42E8425C-B56C-4BDD-9572-FC0F6EB494C6}"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:133,133,133,133,&amp;cs=370026F2D558F0ADA47C28C6E60E1C720" xr:uid="{B67F8EB5-E277-4EB9-86D3-80B1E6D83A11}"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:132,132,132,132,&amp;cs=3065DA9F05B947F719C9C1B3A03084EA1" xr:uid="{E08968F2-AB1E-4606-9F15-732FFD401495}"/>
-    <hyperlink ref="B6" r:id="rId4" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:131,131,131,131,&amp;cs=370CA8A2A21A7E153BB783D3F40CF4303" xr:uid="{333EBE49-34C9-46CF-9194-D30AA48BB018}"/>
-    <hyperlink ref="B7" r:id="rId5" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:130,130,130,130,&amp;cs=3DB459122826D3F8BC2737E27A116FCD0" xr:uid="{A6912061-19B8-40E3-8A17-1AD02D87682B}"/>
-    <hyperlink ref="B8" r:id="rId6" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:129,129,129,129,&amp;cs=3430864EA5167DA1FCB5AC53D350EF226" xr:uid="{67B45F64-0A2B-4592-A15B-CD29143D91EB}"/>
-    <hyperlink ref="B9" r:id="rId7" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:128,128,128,128,&amp;cs=34D99B5DBF7D12938C7D06C9106A7D92B" xr:uid="{8FCA0973-8B8C-4212-BE9E-CFB79975B50E}"/>
-    <hyperlink ref="B10" r:id="rId8" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:127,127,127,127,&amp;cs=3C7AAC245005AC83F1CF3FCB52D22DB6F" xr:uid="{F23446E2-936B-454D-8728-D244DA8D573C}"/>
-    <hyperlink ref="B11" r:id="rId9" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:126,126,126,126,&amp;cs=3208052F0DBB55A1B4A491A5E214EB5D0" xr:uid="{659FF14C-3A62-458F-9682-4B7DB2523A94}"/>
-    <hyperlink ref="B12" r:id="rId10" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:125,125,125,125,&amp;cs=3009FBD972FAEECED1D7B191ABCDE4E29" xr:uid="{C7F85B8C-A97C-4B7C-A9FC-20F11FBCA6AD}"/>
-    <hyperlink ref="B13" r:id="rId11" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:124,124,124,124,&amp;cs=3C16642E9A0E9F04C9A587C16D52D2226" xr:uid="{97E76670-6279-4023-8D15-4B6B8CDB9BB9}"/>
-    <hyperlink ref="B14" r:id="rId12" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:123,123,123,123,&amp;cs=31C197E4313789C72DE680581E8DADF49" xr:uid="{A406AF48-FFB5-48DD-A80B-E4565155330D}"/>
-    <hyperlink ref="B15" r:id="rId13" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:122,122,122,122,&amp;cs=3FFC1D51AB13B7F315A236F4EBCA4D47C" xr:uid="{3DE1F672-6A1F-4E67-8C8B-033DD9482FE7}"/>
-    <hyperlink ref="B16" r:id="rId14" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:121,121,121,121,&amp;cs=34086827D8549CB63906C732909E04969" xr:uid="{B399D70B-E9B7-4AAC-8E35-0A641595A710}"/>
-    <hyperlink ref="B17" r:id="rId15" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:120,120,120,120,&amp;cs=389ED15E0D03A573F3E4A8B8554002299" xr:uid="{FE05CA3D-0078-44CE-94DA-C143214A5650}"/>
-    <hyperlink ref="B18" r:id="rId16" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:119,119,119,119,&amp;cs=38DDE6BD82187677FE99390236AEFD9B8" xr:uid="{DC5871FE-C08D-4EB1-A5AF-F47C8A726BE0}"/>
-    <hyperlink ref="B19" r:id="rId17" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:118,118,118,118,&amp;cs=38F8C8942C28146E22B28EDB9B79F6756" xr:uid="{E5CCE3A9-776C-4E43-BFD3-469A1493922A}"/>
-    <hyperlink ref="B20" r:id="rId18" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:117,117,117,117,&amp;cs=35CDFA3BB0E7AF825B27DC38785DB3E21" xr:uid="{94447B7B-C7A0-42A4-9EEA-48C7FE41DE48}"/>
-    <hyperlink ref="B21" r:id="rId19" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:116,116,116,116,&amp;cs=3B848223877A9A7EAF11A54DDF8EFEECE" xr:uid="{9CEA8576-D50F-4CB5-8B1F-C7FF351D445C}"/>
-    <hyperlink ref="B22" r:id="rId20" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:115,115,115,115,&amp;cs=3F843B8111D67B4AD5958C1E0616221BE" xr:uid="{215F0417-0200-4622-9928-7967669FDFF7}"/>
-    <hyperlink ref="B23" r:id="rId21" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:114,114,114,114,&amp;cs=349068159EF5A844837AB0F42E4C512A1" xr:uid="{D0C27DC9-B21B-4921-A947-D0F849B71CAF}"/>
-    <hyperlink ref="B24" r:id="rId22" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:113,113,113,113,&amp;cs=3C939954FA0980A81C635760CF66058DD" xr:uid="{85CA11F7-C3F5-4E3A-A188-9F1F3875A390}"/>
-    <hyperlink ref="B25" r:id="rId23" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:112,112,112,112,&amp;cs=3846A9F916B851DD12BD4F05C58BAD4FF" xr:uid="{B0142BDF-1651-476E-AFFA-BC76DED874B8}"/>
-    <hyperlink ref="B26" r:id="rId24" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:111,111,111,111,&amp;cs=362A3A83F80053C5A86DF292F9CD5ADD5" xr:uid="{773B79C2-F116-46DD-B502-A185E8F7E165}"/>
-    <hyperlink ref="B27" r:id="rId25" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:110,110,110,110,&amp;cs=37489B28E9F8A77FD8193920575C24A40" xr:uid="{1F8C466E-F786-45A5-990A-12B51C048710}"/>
-    <hyperlink ref="B28" r:id="rId26" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:109,109,109,109,&amp;cs=38F1AE9C856B1061B592D1113111BF39D" xr:uid="{A9F49441-381F-4405-B592-E46E447C5C7D}"/>
-    <hyperlink ref="B29" r:id="rId27" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:108,108,108,108,&amp;cs=38D56271EF02702B55A800704B94161D8" xr:uid="{DC420E6B-7F4F-4F05-9FEC-43C62991F0D8}"/>
-    <hyperlink ref="B30" r:id="rId28" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:107,107,107,107,&amp;cs=350D442B9B98DD60E82A717C96118FE61" xr:uid="{CCD275B5-0546-4B01-A77B-831E0AC132BE}"/>
-    <hyperlink ref="B31" r:id="rId29" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:106,106,106,106,&amp;cs=35399F6F5CA7E4285275A683CCB469EC7" xr:uid="{8DB9C48E-A551-4AA2-B979-F4A81326BF33}"/>
-    <hyperlink ref="B32" r:id="rId30" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:105,105,105,105,&amp;cs=3A5ACEB0780064C7025228931F258ADA8" xr:uid="{525FA121-4024-463B-9093-91775B5C341B}"/>
-    <hyperlink ref="B33" r:id="rId31" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:104,104,104,104,&amp;cs=318BC7CC7F1F029421D4B4984B8F61F65" xr:uid="{2AFF830A-8C93-4FC0-B95D-5B82FD1D54E4}"/>
-    <hyperlink ref="B34" r:id="rId32" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:103,103,103,103,&amp;cs=354F07E24EEDB9F2C64956319BC6168B1" xr:uid="{3162B330-231A-40F9-B2AF-06B95971B7B1}"/>
-    <hyperlink ref="B35" r:id="rId33" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:102,102,102,102,&amp;cs=336C635E440818C3B4788D66665DECBB2" xr:uid="{7DCC8FDC-AAF7-4417-ADAB-368442D815BC}"/>
-    <hyperlink ref="B36" r:id="rId34" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:101,101,101,101,&amp;cs=38F1F6297B0EB5109AFF871914E3328F1" xr:uid="{79DCFCB3-65DF-47DA-9BEB-8800A5F7ABDD}"/>
-    <hyperlink ref="B37" r:id="rId35" display="https://gd49ef7d5e3cd2d-db202110212330.adb.us-phoenix-1.oraclecloudapps.com/ords/f?p=4000:971:104344432783663:::RP:P971_APPLICATION_ID,FB_FLOW_ID,F4000_P1_FLOW,P0_FLOWPAGE,RECENT_PAGES:100,100,100,100,&amp;cs=35B7D636AEC12A0CD7826416D54578FAB" xr:uid="{B79B0436-38B2-46F4-A3A8-341A05D7187E}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{42E8425C-B56C-4BDD-9572-FC0F6EB494C6}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{B67F8EB5-E277-4EB9-86D3-80B1E6D83A11}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{E08968F2-AB1E-4606-9F15-732FFD401495}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{333EBE49-34C9-46CF-9194-D30AA48BB018}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{A6912061-19B8-40E3-8A17-1AD02D87682B}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{67B45F64-0A2B-4592-A15B-CD29143D91EB}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{8FCA0973-8B8C-4212-BE9E-CFB79975B50E}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{F23446E2-936B-454D-8728-D244DA8D573C}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{659FF14C-3A62-458F-9682-4B7DB2523A94}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{C7F85B8C-A97C-4B7C-A9FC-20F11FBCA6AD}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{97E76670-6279-4023-8D15-4B6B8CDB9BB9}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{A406AF48-FFB5-48DD-A80B-E4565155330D}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{3DE1F672-6A1F-4E67-8C8B-033DD9482FE7}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{B399D70B-E9B7-4AAC-8E35-0A641595A710}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{FE05CA3D-0078-44CE-94DA-C143214A5650}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{DC5871FE-C08D-4EB1-A5AF-F47C8A726BE0}"/>
+    <hyperlink ref="B19" r:id="rId17" xr:uid="{E5CCE3A9-776C-4E43-BFD3-469A1493922A}"/>
+    <hyperlink ref="B20" r:id="rId18" xr:uid="{94447B7B-C7A0-42A4-9EEA-48C7FE41DE48}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{9CEA8576-D50F-4CB5-8B1F-C7FF351D445C}"/>
+    <hyperlink ref="B22" r:id="rId20" xr:uid="{215F0417-0200-4622-9928-7967669FDFF7}"/>
+    <hyperlink ref="B23" r:id="rId21" xr:uid="{D0C27DC9-B21B-4921-A947-D0F849B71CAF}"/>
+    <hyperlink ref="B24" r:id="rId22" xr:uid="{85CA11F7-C3F5-4E3A-A188-9F1F3875A390}"/>
+    <hyperlink ref="B25" r:id="rId23" xr:uid="{B0142BDF-1651-476E-AFFA-BC76DED874B8}"/>
+    <hyperlink ref="B26" r:id="rId24" xr:uid="{773B79C2-F116-46DD-B502-A185E8F7E165}"/>
+    <hyperlink ref="B27" r:id="rId25" xr:uid="{1F8C466E-F786-45A5-990A-12B51C048710}"/>
+    <hyperlink ref="B28" r:id="rId26" xr:uid="{A9F49441-381F-4405-B592-E46E447C5C7D}"/>
+    <hyperlink ref="B29" r:id="rId27" xr:uid="{DC420E6B-7F4F-4F05-9FEC-43C62991F0D8}"/>
+    <hyperlink ref="B30" r:id="rId28" xr:uid="{CCD275B5-0546-4B01-A77B-831E0AC132BE}"/>
+    <hyperlink ref="B31" r:id="rId29" xr:uid="{8DB9C48E-A551-4AA2-B979-F4A81326BF33}"/>
+    <hyperlink ref="B32" r:id="rId30" xr:uid="{525FA121-4024-463B-9093-91775B5C341B}"/>
+    <hyperlink ref="B33" r:id="rId31" xr:uid="{2AFF830A-8C93-4FC0-B95D-5B82FD1D54E4}"/>
+    <hyperlink ref="B34" r:id="rId32" xr:uid="{3162B330-231A-40F9-B2AF-06B95971B7B1}"/>
+    <hyperlink ref="B35" r:id="rId33" xr:uid="{7DCC8FDC-AAF7-4417-ADAB-368442D815BC}"/>
+    <hyperlink ref="B36" r:id="rId34" xr:uid="{79DCFCB3-65DF-47DA-9BEB-8800A5F7ABDD}"/>
+    <hyperlink ref="B37" r:id="rId35" xr:uid="{B79B0436-38B2-46F4-A3A8-341A05D7187E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
